--- a/408.xlsx
+++ b/408.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25750\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25750\Desktop\ebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5328B0-787A-4658-ACA2-E5CB16861546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D855D2EC-0B4A-4177-9395-FEAEAC41D9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="操作系统" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="787">
   <si>
     <t>part</t>
   </si>
@@ -2394,7 +2394,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2437,7 +2437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2460,11 +2460,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2473,9 +2499,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2483,8 +2506,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2801,955 +2831,911 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9223FCB-0523-4E13-BE48-901E8AF65A92}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C86"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.19236111111111112</v>
       </c>
-      <c r="C3" s="8">
-        <v>45337</v>
-      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="8">
-        <v>45338</v>
-      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="8">
-        <v>45339</v>
-      </c>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C6" s="8">
-        <v>45340</v>
-      </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C7" s="8">
-        <v>45341</v>
-      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C8" s="8">
-        <v>45342</v>
-      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="8">
-        <v>45343</v>
-      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="8">
-        <v>45344</v>
-      </c>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="8">
-        <v>45345</v>
-      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C12" s="8">
-        <v>45346</v>
-      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C13" s="8">
-        <v>45347</v>
-      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C14" s="8">
-        <v>45348</v>
-      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="8">
-        <v>45349</v>
-      </c>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C16" s="8">
-        <v>45350</v>
-      </c>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="8">
-        <v>45351</v>
-      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="8">
-        <v>45352</v>
-      </c>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="8">
-        <v>45353</v>
-      </c>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C20" s="8">
-        <v>45354</v>
-      </c>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C21" s="8">
-        <v>45355</v>
-      </c>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C22" s="8">
-        <v>45356</v>
-      </c>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C23" s="8">
-        <v>45357</v>
-      </c>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C24" s="8">
-        <v>45358</v>
-      </c>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="8">
-        <v>45359</v>
+      <c r="C25" s="9">
+        <v>45360</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C26" s="8">
-        <v>45360</v>
+      <c r="C26" s="9">
+        <v>45361</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C27" s="8">
-        <v>45361</v>
+      <c r="C27" s="9">
+        <v>45362</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C28" s="8">
-        <v>45362</v>
+      <c r="C28" s="9">
+        <v>45363</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="8">
-        <v>45363</v>
+      <c r="C29" s="9">
+        <v>45364</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C30" s="8">
-        <v>45364</v>
+      <c r="C30" s="9">
+        <v>45365</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="8">
-        <v>45365</v>
+      <c r="C31" s="9">
+        <v>45366</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C32" s="8">
-        <v>45366</v>
+      <c r="C32" s="9">
+        <v>45367</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="8">
-        <v>45367</v>
+      <c r="C33" s="9">
+        <v>45368</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C34" s="8">
-        <v>45368</v>
+      <c r="C34" s="9">
+        <v>45369</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C35" s="8">
-        <v>45369</v>
+      <c r="C35" s="9">
+        <v>45370</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C36" s="8">
-        <v>45370</v>
+      <c r="C36" s="9">
+        <v>45371</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C37" s="8">
-        <v>45371</v>
+      <c r="C37" s="9">
+        <v>45372</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="8">
-        <v>45372</v>
+      <c r="C38" s="9">
+        <v>45373</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C39" s="8">
-        <v>45373</v>
+      <c r="C39" s="9">
+        <v>45374</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C40" s="8">
-        <v>45374</v>
+      <c r="C40" s="9">
+        <v>45375</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C41" s="8">
-        <v>45375</v>
+      <c r="C41" s="9">
+        <v>45376</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C42" s="8">
-        <v>45376</v>
+      <c r="C42" s="9">
+        <v>45377</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="8">
-        <v>45377</v>
+      <c r="C43" s="9">
+        <v>45378</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="8">
-        <v>45378</v>
+      <c r="C44" s="9">
+        <v>45379</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C45" s="8">
-        <v>45379</v>
+      <c r="C45" s="9">
+        <v>45380</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C46" s="8">
-        <v>45380</v>
+      <c r="C46" s="9">
+        <v>45381</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C47" s="8">
-        <v>45381</v>
+      <c r="C47" s="9">
+        <v>45382</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C48" s="8">
-        <v>45382</v>
+      <c r="C48" s="9">
+        <v>45383</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C49" s="8">
-        <v>45383</v>
+      <c r="C49" s="9">
+        <v>45384</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="8">
-        <v>45384</v>
+      <c r="C50" s="9">
+        <v>45385</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C51" s="8">
-        <v>45385</v>
+      <c r="C51" s="9">
+        <v>45386</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C52" s="8">
-        <v>45386</v>
+      <c r="C52" s="9">
+        <v>45387</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C53" s="8">
-        <v>45387</v>
+      <c r="C53" s="9">
+        <v>45388</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C54" s="8">
-        <v>45388</v>
+      <c r="C54" s="9">
+        <v>45389</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C55" s="8">
-        <v>45389</v>
+      <c r="C55" s="9">
+        <v>45390</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C56" s="8">
-        <v>45390</v>
+      <c r="C56" s="9">
+        <v>45391</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C57" s="8">
-        <v>45391</v>
+      <c r="C57" s="9">
+        <v>45392</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="8">
-        <v>45392</v>
+      <c r="C58" s="9">
+        <v>45393</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C59" s="8">
-        <v>45393</v>
+      <c r="C59" s="9">
+        <v>45394</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C60" s="8">
-        <v>45394</v>
+      <c r="C60" s="9">
+        <v>45395</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C61" s="8">
-        <v>45395</v>
+      <c r="C61" s="9">
+        <v>45396</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C62" s="8">
-        <v>45396</v>
+      <c r="C62" s="9">
+        <v>45397</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C63" s="8">
-        <v>45397</v>
+      <c r="C63" s="9">
+        <v>45398</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C64" s="8">
-        <v>45398</v>
+      <c r="C64" s="9">
+        <v>45399</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C65" s="8">
-        <v>45399</v>
+      <c r="C65" s="9">
+        <v>45400</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C66" s="8">
-        <v>45400</v>
+      <c r="C66" s="9">
+        <v>45401</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C67" s="8">
-        <v>45401</v>
+      <c r="C67" s="9">
+        <v>45402</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C68" s="8">
-        <v>45402</v>
+      <c r="C68" s="9">
+        <v>45403</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C69" s="8">
-        <v>45403</v>
+      <c r="C69" s="9">
+        <v>45404</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C70" s="8">
-        <v>45404</v>
+      <c r="C70" s="9">
+        <v>45405</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C71" s="8">
-        <v>45405</v>
+      <c r="C71" s="9">
+        <v>45406</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C72" s="8">
-        <v>45406</v>
+      <c r="C72" s="9">
+        <v>45407</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C73" s="8">
-        <v>45407</v>
+      <c r="C73" s="9">
+        <v>45408</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C74" s="8">
-        <v>45408</v>
+      <c r="C74" s="9">
+        <v>45409</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C75" s="8">
-        <v>45409</v>
+      <c r="C75" s="9">
+        <v>45410</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C76" s="8">
-        <v>45410</v>
+      <c r="C76" s="9">
+        <v>45411</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C77" s="8">
-        <v>45411</v>
+      <c r="C77" s="9">
+        <v>45412</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C78" s="8">
-        <v>45412</v>
+      <c r="C78" s="9">
+        <v>45413</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C79" s="8">
-        <v>45413</v>
+      <c r="C79" s="9">
+        <v>45414</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C80" s="8">
-        <v>45414</v>
+      <c r="C80" s="9">
+        <v>45415</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C81" s="8">
-        <v>45415</v>
+      <c r="C81" s="9">
+        <v>45416</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C82" s="8">
-        <v>45416</v>
+      <c r="C82" s="9">
+        <v>45417</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C83" s="8">
-        <v>45417</v>
+      <c r="C83" s="9">
+        <v>45418</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C84" s="8">
-        <v>45418</v>
+      <c r="C84" s="9">
+        <v>45419</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C85" s="8">
-        <v>45419</v>
+      <c r="C85" s="9">
+        <v>45420</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C86" s="8">
-        <v>45420</v>
+      <c r="C86" s="9">
+        <v>45421</v>
       </c>
     </row>
   </sheetData>
@@ -3767,952 +3753,953 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB0100-01BC-468E-9546-A1FDFC84918B}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>45360</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>45361</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>45362</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>45363</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>45364</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>45365</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>45366</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>45367</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>45368</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>45369</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>45370</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>45371</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>45372</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>45373</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>45374</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>45375</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>45376</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>45377</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>45378</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>45379</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>45380</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>45381</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>45382</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>45383</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>45384</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>45385</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>45386</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>45387</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>45388</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>45389</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>45390</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>45391</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>45392</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>45393</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>45394</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>45395</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>45396</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>45397</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>45398</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>45399</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>45400</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>45401</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>45402</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>45403</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>45404</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>45405</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>45406</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>45407</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>45408</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>45409</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>45410</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>45411</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>45412</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>45413</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>45414</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>45415</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>45416</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>45417</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>45418</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>45419</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>45420</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>45421</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>45422</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>45423</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>45424</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>45425</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>45426</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>45427</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>45428</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>45429</v>
       </c>
     </row>
@@ -4731,823 +4718,824 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBB909B-7AE0-4C79-8103-C278EBE26F62}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C78"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>45360</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>45361</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>45362</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>45363</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>45364</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>45365</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>45366</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>45367</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>45368</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>45369</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>45370</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>45371</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>45372</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>45373</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>45374</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>45375</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>45376</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>45377</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>45378</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>45379</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>45380</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>45381</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>45382</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>45383</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>45384</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>45385</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>45386</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>45387</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>45388</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>45389</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>45390</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>45391</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>45392</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>45393</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>45394</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>45395</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>45396</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>45397</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>45398</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>45399</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>45400</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>45401</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>45402</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>45403</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>45404</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>45405</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>45406</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>45407</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>45408</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>45409</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>45410</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>45411</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>45412</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>45413</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>45414</v>
       </c>
     </row>
@@ -5564,1084 +5552,1079 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3735C9-F926-462E-A039-4B4953B917F4}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G18" activeCellId="1" sqref="F23 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>786</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>648</v>
+      </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C20" s="8">
+        <v>45360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C22" s="8">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" s="8">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C25" s="8">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C26" s="8">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C27" s="8">
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" s="8">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C29" s="8">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C30" s="8">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C31" s="8">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C33" s="8">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C34" s="8">
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C35" s="8">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C36" s="8">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C37" s="8">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="8">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C39" s="8">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C40" s="8">
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C41" s="8">
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C42" s="8">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="C43" s="8">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C44" s="8">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C45" s="8">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C46" s="8">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C47" s="8">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C48" s="8">
+        <v>45388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C49" s="8">
+        <v>45389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C50" s="8">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C51" s="8">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="C52" s="8">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C53" s="8">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C54" s="8">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C55" s="8">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C56" s="8">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C57" s="8">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C58" s="8">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C59" s="8">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C60" s="8">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C61" s="8">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C62" s="8">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C63" s="8">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C64" s="8">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C65" s="8">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C66" s="8">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C67" s="8">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C68" s="8">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C69" s="8">
+        <v>45409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C70" s="8">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C71" s="8">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C72" s="8">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C73" s="8">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C74" s="8">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="C75" s="8">
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="C76" s="8">
+        <v>45416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C77" s="8">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C22" s="9">
-        <v>45360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="C23" s="9">
-        <v>45361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="C24" s="9">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="C25" s="9">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C26" s="9">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C27" s="9">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="C28" s="9">
-        <v>45366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="C29" s="9">
-        <v>45367</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C30" s="9">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C31" s="9">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="C78" s="8">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C79" s="8">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C80" s="8">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C81" s="8">
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C82" s="8">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C83" s="8">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C84" s="8">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C85" s="8">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C86" s="8">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C87" s="8">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C88" s="8">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="C32" s="9">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="C33" s="9">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="C34" s="9">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C35" s="9">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="C36" s="9">
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="C37" s="9">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="C38" s="9">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="C39" s="9">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="C40" s="9">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="C41" s="9">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="C42" s="9">
-        <v>45380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="C43" s="9">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C44" s="9">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C45" s="9">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C46" s="9">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="C47" s="9">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C48" s="9">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="C49" s="9">
-        <v>45387</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="C50" s="9">
-        <v>45388</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C51" s="9">
-        <v>45389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="C52" s="9">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="C53" s="9">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C54" s="9">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="C55" s="9">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="C56" s="9">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C57" s="9">
-        <v>45395</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="C58" s="9">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="C59" s="9">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C60" s="9">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C61" s="9">
-        <v>45399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C62" s="9">
-        <v>45400</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="C63" s="9">
-        <v>45401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="C64" s="9">
-        <v>45402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="C65" s="9">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C66" s="9">
-        <v>45404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="C67" s="9">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="C68" s="9">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="C69" s="9">
-        <v>45407</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C70" s="9">
-        <v>45408</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="C71" s="9">
-        <v>45409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C72" s="9">
-        <v>45410</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="C73" s="9">
-        <v>45411</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C74" s="9">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C75" s="9">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C76" s="9">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C77" s="9">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="C78" s="9">
-        <v>45416</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="C79" s="9">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="C80" s="9">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="C81" s="9">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="C82" s="9">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="C83" s="9">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="C84" s="9">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="C85" s="9">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="C86" s="9">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="C87" s="9">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="C88" s="9">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="C89" s="9">
-        <v>45427</v>
+      <c r="C89" s="8">
+        <v>45429</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="C90" s="9">
-        <v>45428</v>
+      <c r="A90" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C90" s="8">
+        <v>45430</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C91" s="9">
-        <v>45429</v>
+      <c r="A91" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C91" s="8">
+        <v>45431</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="C92" s="9">
-        <v>45430</v>
+      <c r="A92" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C92" s="8">
+        <v>45432</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="C93" s="9">
-        <v>45431</v>
+      <c r="A93" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C93" s="8">
+        <v>45433</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="C94" s="9">
-        <v>45432</v>
+      <c r="A94" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C94" s="8">
+        <v>45434</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C95" s="9">
-        <v>45433</v>
+      <c r="A95" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C95" s="8">
+        <v>45435</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C96" s="9">
-        <v>45434</v>
+      <c r="A96" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C96" s="8">
+        <v>45436</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="C97" s="9">
-        <v>45435</v>
+      <c r="A97" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C97" s="8">
+        <v>45437</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="C98" s="9">
-        <v>45436</v>
+      <c r="A98" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C98" s="8">
+        <v>45438</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C99" s="9">
-        <v>45437</v>
+      <c r="A99" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="C99" s="8">
+        <v>45439</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="C100" s="9">
-        <v>45438</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C101" s="9">
-        <v>45439</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
@@ -6673,22 +6656,7 @@
       <c r="B107" s="3"/>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6699,687 +6667,688 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAED3EB-2789-40D1-A0AC-574CA9AE9ABF}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C71" s="5"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C73" s="5"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="C74" s="5"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>

--- a/408.xlsx
+++ b/408.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25750\Desktop\ebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D855D2EC-0B4A-4177-9395-FEAEAC41D9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F70BA-2D12-4000-B075-2F6A019C3119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="操作系统" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="787">
   <si>
     <t>part</t>
   </si>
@@ -2393,9 +2393,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2490,7 +2487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2506,13 +2503,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2831,32 +2841,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9223FCB-0523-4E13-BE48-901E8AF65A92}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2865,7 +2875,7 @@
       <c r="B3" s="5">
         <v>0.19236111111111112</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2874,7 +2884,7 @@
       <c r="B4" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2883,7 +2893,7 @@
       <c r="B5" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2892,7 +2902,7 @@
       <c r="B6" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2901,7 +2911,7 @@
       <c r="B7" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2910,7 +2920,7 @@
       <c r="B8" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2919,7 +2929,7 @@
       <c r="B9" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2928,7 +2938,7 @@
       <c r="B10" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2937,7 +2947,7 @@
       <c r="B11" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2946,7 +2956,7 @@
       <c r="B12" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2955,7 +2965,7 @@
       <c r="B13" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2964,7 +2974,7 @@
       <c r="B14" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2973,7 +2983,7 @@
       <c r="B15" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2982,7 +2992,7 @@
       <c r="B16" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2991,7 +3001,7 @@
       <c r="B17" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -3000,7 +3010,7 @@
       <c r="B18" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3009,7 +3019,7 @@
       <c r="B19" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -3018,7 +3028,7 @@
       <c r="B20" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3027,7 +3037,7 @@
       <c r="B21" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3036,7 +3046,7 @@
       <c r="B22" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3045,7 +3055,7 @@
       <c r="B23" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -3054,7 +3064,7 @@
       <c r="B24" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -3063,7 +3073,7 @@
       <c r="B25" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="11">
         <v>45360</v>
       </c>
     </row>
@@ -3074,7 +3084,7 @@
       <c r="B26" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="11">
         <v>45361</v>
       </c>
     </row>
@@ -3085,7 +3095,7 @@
       <c r="B27" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="11">
         <v>45362</v>
       </c>
     </row>
@@ -3096,7 +3106,7 @@
       <c r="B28" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="11">
         <v>45363</v>
       </c>
     </row>
@@ -3107,7 +3117,7 @@
       <c r="B29" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="11">
         <v>45364</v>
       </c>
     </row>
@@ -3118,7 +3128,7 @@
       <c r="B30" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="11">
         <v>45365</v>
       </c>
     </row>
@@ -3129,7 +3139,7 @@
       <c r="B31" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="11">
         <v>45366</v>
       </c>
     </row>
@@ -3140,7 +3150,7 @@
       <c r="B32" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="11">
         <v>45367</v>
       </c>
     </row>
@@ -3151,7 +3161,7 @@
       <c r="B33" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="11">
         <v>45368</v>
       </c>
     </row>
@@ -3162,7 +3172,7 @@
       <c r="B34" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="11">
         <v>45369</v>
       </c>
     </row>
@@ -3173,7 +3183,7 @@
       <c r="B35" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="11">
         <v>45370</v>
       </c>
     </row>
@@ -3184,7 +3194,7 @@
       <c r="B36" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="11">
         <v>45371</v>
       </c>
     </row>
@@ -3195,7 +3205,7 @@
       <c r="B37" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="11">
         <v>45372</v>
       </c>
     </row>
@@ -3206,7 +3216,7 @@
       <c r="B38" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="11">
         <v>45373</v>
       </c>
     </row>
@@ -3217,7 +3227,7 @@
       <c r="B39" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="11">
         <v>45374</v>
       </c>
     </row>
@@ -3228,7 +3238,7 @@
       <c r="B40" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="11">
         <v>45375</v>
       </c>
     </row>
@@ -3239,7 +3249,7 @@
       <c r="B41" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="11">
         <v>45376</v>
       </c>
     </row>
@@ -3250,7 +3260,7 @@
       <c r="B42" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="11">
         <v>45377</v>
       </c>
     </row>
@@ -3261,7 +3271,7 @@
       <c r="B43" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="11">
         <v>45378</v>
       </c>
     </row>
@@ -3272,7 +3282,7 @@
       <c r="B44" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="11">
         <v>45379</v>
       </c>
     </row>
@@ -3283,7 +3293,7 @@
       <c r="B45" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="11">
         <v>45380</v>
       </c>
     </row>
@@ -3294,7 +3304,7 @@
       <c r="B46" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="11">
         <v>45381</v>
       </c>
     </row>
@@ -3305,7 +3315,7 @@
       <c r="B47" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="11">
         <v>45382</v>
       </c>
     </row>
@@ -3316,7 +3326,7 @@
       <c r="B48" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="11">
         <v>45383</v>
       </c>
     </row>
@@ -3327,7 +3337,7 @@
       <c r="B49" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="11">
         <v>45384</v>
       </c>
     </row>
@@ -3338,7 +3348,7 @@
       <c r="B50" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="11">
         <v>45385</v>
       </c>
     </row>
@@ -3349,7 +3359,7 @@
       <c r="B51" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="11">
         <v>45386</v>
       </c>
     </row>
@@ -3360,7 +3370,7 @@
       <c r="B52" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="11">
         <v>45387</v>
       </c>
     </row>
@@ -3371,7 +3381,7 @@
       <c r="B53" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="11">
         <v>45388</v>
       </c>
     </row>
@@ -3382,7 +3392,7 @@
       <c r="B54" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="11">
         <v>45389</v>
       </c>
     </row>
@@ -3393,7 +3403,7 @@
       <c r="B55" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="11">
         <v>45390</v>
       </c>
     </row>
@@ -3404,7 +3414,7 @@
       <c r="B56" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="11">
         <v>45391</v>
       </c>
     </row>
@@ -3415,7 +3425,7 @@
       <c r="B57" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="11">
         <v>45392</v>
       </c>
     </row>
@@ -3426,7 +3436,7 @@
       <c r="B58" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="11">
         <v>45393</v>
       </c>
     </row>
@@ -3437,7 +3447,7 @@
       <c r="B59" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="11">
         <v>45394</v>
       </c>
     </row>
@@ -3448,7 +3458,7 @@
       <c r="B60" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="11">
         <v>45395</v>
       </c>
     </row>
@@ -3459,7 +3469,7 @@
       <c r="B61" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="11">
         <v>45396</v>
       </c>
     </row>
@@ -3470,7 +3480,7 @@
       <c r="B62" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="11">
         <v>45397</v>
       </c>
     </row>
@@ -3481,7 +3491,7 @@
       <c r="B63" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="11">
         <v>45398</v>
       </c>
     </row>
@@ -3492,7 +3502,7 @@
       <c r="B64" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="11">
         <v>45399</v>
       </c>
     </row>
@@ -3503,7 +3513,7 @@
       <c r="B65" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="11">
         <v>45400</v>
       </c>
     </row>
@@ -3514,7 +3524,7 @@
       <c r="B66" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="11">
         <v>45401</v>
       </c>
     </row>
@@ -3525,7 +3535,7 @@
       <c r="B67" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="11">
         <v>45402</v>
       </c>
     </row>
@@ -3536,7 +3546,7 @@
       <c r="B68" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="11">
         <v>45403</v>
       </c>
     </row>
@@ -3547,7 +3557,7 @@
       <c r="B69" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="11">
         <v>45404</v>
       </c>
     </row>
@@ -3558,7 +3568,7 @@
       <c r="B70" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="11">
         <v>45405</v>
       </c>
     </row>
@@ -3569,7 +3579,7 @@
       <c r="B71" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="11">
         <v>45406</v>
       </c>
     </row>
@@ -3580,7 +3590,7 @@
       <c r="B72" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="11">
         <v>45407</v>
       </c>
     </row>
@@ -3591,7 +3601,7 @@
       <c r="B73" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="11">
         <v>45408</v>
       </c>
     </row>
@@ -3602,7 +3612,7 @@
       <c r="B74" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="11">
         <v>45409</v>
       </c>
     </row>
@@ -3613,7 +3623,7 @@
       <c r="B75" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="11">
         <v>45410</v>
       </c>
     </row>
@@ -3624,7 +3634,7 @@
       <c r="B76" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="11">
         <v>45411</v>
       </c>
     </row>
@@ -3635,7 +3645,7 @@
       <c r="B77" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="11">
         <v>45412</v>
       </c>
     </row>
@@ -3646,7 +3656,7 @@
       <c r="B78" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="11">
         <v>45413</v>
       </c>
     </row>
@@ -3657,7 +3667,7 @@
       <c r="B79" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="11">
         <v>45414</v>
       </c>
     </row>
@@ -3668,7 +3678,7 @@
       <c r="B80" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="11">
         <v>45415</v>
       </c>
     </row>
@@ -3679,7 +3689,7 @@
       <c r="B81" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="11">
         <v>45416</v>
       </c>
     </row>
@@ -3690,7 +3700,7 @@
       <c r="B82" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="11">
         <v>45417</v>
       </c>
     </row>
@@ -3701,7 +3711,7 @@
       <c r="B83" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="11">
         <v>45418</v>
       </c>
     </row>
@@ -3712,7 +3722,7 @@
       <c r="B84" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="11">
         <v>45419</v>
       </c>
     </row>
@@ -3723,7 +3733,7 @@
       <c r="B85" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="11">
         <v>45420</v>
       </c>
     </row>
@@ -3734,7 +3744,7 @@
       <c r="B86" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="11">
         <v>45421</v>
       </c>
     </row>
@@ -3753,32 +3763,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB0100-01BC-468E-9546-A1FDFC84918B}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3787,7 +3797,7 @@
       <c r="B3" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3796,7 +3806,7 @@
       <c r="B4" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3805,7 +3815,7 @@
       <c r="B5" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3814,7 +3824,7 @@
       <c r="B6" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3823,7 +3833,7 @@
       <c r="B7" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3832,7 +3842,7 @@
       <c r="B8" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -3841,7 +3851,7 @@
       <c r="B9" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3850,7 +3860,7 @@
       <c r="B10" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -3859,7 +3869,7 @@
       <c r="B11" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3868,7 +3878,7 @@
       <c r="B12" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3877,7 +3887,7 @@
       <c r="B13" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3886,7 +3896,7 @@
       <c r="B14" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3895,7 +3905,7 @@
       <c r="B15" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -3904,7 +3914,7 @@
       <c r="B16" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3913,7 +3923,7 @@
       <c r="B17" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -3922,7 +3932,7 @@
       <c r="B18" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3931,7 +3941,7 @@
       <c r="B19" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -3940,7 +3950,7 @@
       <c r="B20" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="13">
         <v>45360</v>
       </c>
     </row>
@@ -3951,7 +3961,7 @@
       <c r="B21" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="13">
         <v>45361</v>
       </c>
     </row>
@@ -3962,7 +3972,7 @@
       <c r="B22" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="13">
         <v>45362</v>
       </c>
     </row>
@@ -3973,7 +3983,7 @@
       <c r="B23" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="13">
         <v>45363</v>
       </c>
     </row>
@@ -3984,7 +3994,7 @@
       <c r="B24" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="13">
         <v>45364</v>
       </c>
     </row>
@@ -3995,7 +4005,7 @@
       <c r="B25" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="13">
         <v>45365</v>
       </c>
     </row>
@@ -4006,7 +4016,7 @@
       <c r="B26" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="13">
         <v>45366</v>
       </c>
     </row>
@@ -4017,7 +4027,7 @@
       <c r="B27" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="13">
         <v>45367</v>
       </c>
     </row>
@@ -4028,7 +4038,7 @@
       <c r="B28" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="13">
         <v>45368</v>
       </c>
     </row>
@@ -4039,7 +4049,7 @@
       <c r="B29" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="13">
         <v>45369</v>
       </c>
     </row>
@@ -4050,7 +4060,7 @@
       <c r="B30" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="13">
         <v>45370</v>
       </c>
     </row>
@@ -4061,7 +4071,7 @@
       <c r="B31" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="13">
         <v>45371</v>
       </c>
     </row>
@@ -4072,7 +4082,7 @@
       <c r="B32" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="13">
         <v>45372</v>
       </c>
     </row>
@@ -4083,7 +4093,7 @@
       <c r="B33" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="13">
         <v>45373</v>
       </c>
     </row>
@@ -4094,7 +4104,7 @@
       <c r="B34" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="13">
         <v>45374</v>
       </c>
     </row>
@@ -4105,7 +4115,7 @@
       <c r="B35" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="13">
         <v>45375</v>
       </c>
     </row>
@@ -4116,7 +4126,7 @@
       <c r="B36" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="13">
         <v>45376</v>
       </c>
     </row>
@@ -4127,7 +4137,7 @@
       <c r="B37" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="13">
         <v>45377</v>
       </c>
     </row>
@@ -4138,7 +4148,7 @@
       <c r="B38" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="13">
         <v>45378</v>
       </c>
     </row>
@@ -4149,7 +4159,7 @@
       <c r="B39" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="13">
         <v>45379</v>
       </c>
     </row>
@@ -4160,7 +4170,7 @@
       <c r="B40" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="13">
         <v>45380</v>
       </c>
     </row>
@@ -4171,7 +4181,7 @@
       <c r="B41" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="13">
         <v>45381</v>
       </c>
     </row>
@@ -4182,7 +4192,7 @@
       <c r="B42" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="13">
         <v>45382</v>
       </c>
     </row>
@@ -4193,7 +4203,7 @@
       <c r="B43" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="13">
         <v>45383</v>
       </c>
     </row>
@@ -4204,7 +4214,7 @@
       <c r="B44" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="13">
         <v>45384</v>
       </c>
     </row>
@@ -4215,7 +4225,7 @@
       <c r="B45" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="13">
         <v>45385</v>
       </c>
     </row>
@@ -4226,7 +4236,7 @@
       <c r="B46" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="13">
         <v>45386</v>
       </c>
     </row>
@@ -4237,7 +4247,7 @@
       <c r="B47" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="13">
         <v>45387</v>
       </c>
     </row>
@@ -4248,7 +4258,7 @@
       <c r="B48" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="13">
         <v>45388</v>
       </c>
     </row>
@@ -4259,7 +4269,7 @@
       <c r="B49" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="13">
         <v>45389</v>
       </c>
     </row>
@@ -4270,7 +4280,7 @@
       <c r="B50" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="13">
         <v>45390</v>
       </c>
     </row>
@@ -4281,7 +4291,7 @@
       <c r="B51" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="13">
         <v>45391</v>
       </c>
     </row>
@@ -4292,7 +4302,7 @@
       <c r="B52" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="13">
         <v>45392</v>
       </c>
     </row>
@@ -4303,7 +4313,7 @@
       <c r="B53" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="13">
         <v>45393</v>
       </c>
     </row>
@@ -4314,7 +4324,7 @@
       <c r="B54" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="13">
         <v>45394</v>
       </c>
     </row>
@@ -4325,7 +4335,7 @@
       <c r="B55" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="13">
         <v>45395</v>
       </c>
     </row>
@@ -4336,7 +4346,7 @@
       <c r="B56" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="13">
         <v>45396</v>
       </c>
     </row>
@@ -4347,7 +4357,7 @@
       <c r="B57" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="13">
         <v>45397</v>
       </c>
     </row>
@@ -4358,7 +4368,7 @@
       <c r="B58" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="13">
         <v>45398</v>
       </c>
     </row>
@@ -4369,7 +4379,7 @@
       <c r="B59" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="13">
         <v>45399</v>
       </c>
     </row>
@@ -4380,7 +4390,7 @@
       <c r="B60" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="13">
         <v>45400</v>
       </c>
     </row>
@@ -4391,7 +4401,7 @@
       <c r="B61" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="13">
         <v>45401</v>
       </c>
     </row>
@@ -4402,7 +4412,7 @@
       <c r="B62" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="13">
         <v>45402</v>
       </c>
     </row>
@@ -4413,7 +4423,7 @@
       <c r="B63" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="13">
         <v>45403</v>
       </c>
     </row>
@@ -4424,7 +4434,7 @@
       <c r="B64" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="13">
         <v>45404</v>
       </c>
     </row>
@@ -4435,7 +4445,7 @@
       <c r="B65" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="13">
         <v>45405</v>
       </c>
     </row>
@@ -4446,7 +4456,7 @@
       <c r="B66" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="13">
         <v>45406</v>
       </c>
     </row>
@@ -4457,7 +4467,7 @@
       <c r="B67" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="13">
         <v>45407</v>
       </c>
     </row>
@@ -4468,7 +4478,7 @@
       <c r="B68" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="13">
         <v>45408</v>
       </c>
     </row>
@@ -4479,7 +4489,7 @@
       <c r="B69" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="13">
         <v>45409</v>
       </c>
     </row>
@@ -4490,7 +4500,7 @@
       <c r="B70" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="13">
         <v>45410</v>
       </c>
     </row>
@@ -4501,7 +4511,7 @@
       <c r="B71" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="13">
         <v>45411</v>
       </c>
     </row>
@@ -4512,7 +4522,7 @@
       <c r="B72" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="13">
         <v>45412</v>
       </c>
     </row>
@@ -4523,7 +4533,7 @@
       <c r="B73" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="13">
         <v>45413</v>
       </c>
     </row>
@@ -4534,7 +4544,7 @@
       <c r="B74" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="13">
         <v>45414</v>
       </c>
     </row>
@@ -4545,7 +4555,7 @@
       <c r="B75" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="13">
         <v>45415</v>
       </c>
     </row>
@@ -4556,7 +4566,7 @@
       <c r="B76" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="13">
         <v>45416</v>
       </c>
     </row>
@@ -4567,7 +4577,7 @@
       <c r="B77" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="13">
         <v>45417</v>
       </c>
     </row>
@@ -4578,7 +4588,7 @@
       <c r="B78" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="13">
         <v>45418</v>
       </c>
     </row>
@@ -4589,7 +4599,7 @@
       <c r="B79" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="13">
         <v>45419</v>
       </c>
     </row>
@@ -4600,7 +4610,7 @@
       <c r="B80" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="13">
         <v>45420</v>
       </c>
     </row>
@@ -4611,7 +4621,7 @@
       <c r="B81" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="13">
         <v>45421</v>
       </c>
     </row>
@@ -4622,7 +4632,7 @@
       <c r="B82" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="13">
         <v>45422</v>
       </c>
     </row>
@@ -4633,7 +4643,7 @@
       <c r="B83" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="13">
         <v>45423</v>
       </c>
     </row>
@@ -4644,7 +4654,7 @@
       <c r="B84" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="13">
         <v>45424</v>
       </c>
     </row>
@@ -4655,7 +4665,7 @@
       <c r="B85" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="13">
         <v>45425</v>
       </c>
     </row>
@@ -4666,7 +4676,7 @@
       <c r="B86" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="13">
         <v>45426</v>
       </c>
     </row>
@@ -4677,7 +4687,7 @@
       <c r="B87" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="13">
         <v>45427</v>
       </c>
     </row>
@@ -4688,7 +4698,7 @@
       <c r="B88" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="13">
         <v>45428</v>
       </c>
     </row>
@@ -4699,7 +4709,7 @@
       <c r="B89" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="13">
         <v>45429</v>
       </c>
     </row>
@@ -4718,32 +4728,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBB909B-7AE0-4C79-8103-C278EBE26F62}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -4752,7 +4762,7 @@
       <c r="B3" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4761,7 +4771,7 @@
       <c r="B4" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -4770,7 +4780,7 @@
       <c r="B5" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -4779,7 +4789,7 @@
       <c r="B6" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -4788,7 +4798,7 @@
       <c r="B7" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -4797,7 +4807,7 @@
       <c r="B8" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -4806,7 +4816,7 @@
       <c r="B9" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -4815,7 +4825,7 @@
       <c r="B10" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -4824,7 +4834,7 @@
       <c r="B11" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4833,7 +4843,7 @@
       <c r="B12" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -4842,7 +4852,7 @@
       <c r="B13" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -4851,7 +4861,7 @@
       <c r="B14" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -4860,7 +4870,7 @@
       <c r="B15" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -4869,7 +4879,7 @@
       <c r="B16" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4878,7 +4888,7 @@
       <c r="B17" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -4887,7 +4897,7 @@
       <c r="B18" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -4896,7 +4906,7 @@
       <c r="B19" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -4905,7 +4915,7 @@
       <c r="B20" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -4914,7 +4924,7 @@
       <c r="B21" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -4923,7 +4933,7 @@
       <c r="B22" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4932,7 +4942,7 @@
       <c r="B23" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -4941,7 +4951,7 @@
       <c r="B24" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="13">
         <v>45360</v>
       </c>
     </row>
@@ -4952,7 +4962,7 @@
       <c r="B25" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="13">
         <v>45361</v>
       </c>
     </row>
@@ -4963,7 +4973,7 @@
       <c r="B26" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="13">
         <v>45362</v>
       </c>
     </row>
@@ -4974,7 +4984,7 @@
       <c r="B27" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="13">
         <v>45363</v>
       </c>
     </row>
@@ -4985,7 +4995,7 @@
       <c r="B28" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="13">
         <v>45364</v>
       </c>
     </row>
@@ -4996,7 +5006,7 @@
       <c r="B29" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="13">
         <v>45365</v>
       </c>
     </row>
@@ -5007,7 +5017,7 @@
       <c r="B30" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="13">
         <v>45366</v>
       </c>
     </row>
@@ -5018,7 +5028,7 @@
       <c r="B31" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="13">
         <v>45367</v>
       </c>
     </row>
@@ -5029,7 +5039,7 @@
       <c r="B32" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="13">
         <v>45368</v>
       </c>
     </row>
@@ -5040,7 +5050,7 @@
       <c r="B33" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="13">
         <v>45369</v>
       </c>
     </row>
@@ -5051,7 +5061,7 @@
       <c r="B34" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="13">
         <v>45370</v>
       </c>
     </row>
@@ -5062,7 +5072,7 @@
       <c r="B35" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="13">
         <v>45371</v>
       </c>
     </row>
@@ -5073,7 +5083,7 @@
       <c r="B36" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="13">
         <v>45372</v>
       </c>
     </row>
@@ -5084,7 +5094,7 @@
       <c r="B37" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="13">
         <v>45373</v>
       </c>
     </row>
@@ -5095,7 +5105,7 @@
       <c r="B38" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="13">
         <v>45374</v>
       </c>
     </row>
@@ -5106,7 +5116,7 @@
       <c r="B39" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="13">
         <v>45375</v>
       </c>
     </row>
@@ -5117,7 +5127,7 @@
       <c r="B40" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="13">
         <v>45376</v>
       </c>
     </row>
@@ -5128,7 +5138,7 @@
       <c r="B41" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="13">
         <v>45377</v>
       </c>
     </row>
@@ -5139,7 +5149,7 @@
       <c r="B42" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="13">
         <v>45378</v>
       </c>
     </row>
@@ -5150,7 +5160,7 @@
       <c r="B43" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="13">
         <v>45379</v>
       </c>
     </row>
@@ -5161,7 +5171,7 @@
       <c r="B44" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="13">
         <v>45380</v>
       </c>
     </row>
@@ -5172,7 +5182,7 @@
       <c r="B45" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="13">
         <v>45381</v>
       </c>
     </row>
@@ -5183,7 +5193,7 @@
       <c r="B46" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="13">
         <v>45382</v>
       </c>
     </row>
@@ -5194,7 +5204,7 @@
       <c r="B47" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="13">
         <v>45383</v>
       </c>
     </row>
@@ -5205,7 +5215,7 @@
       <c r="B48" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="13">
         <v>45384</v>
       </c>
     </row>
@@ -5216,7 +5226,7 @@
       <c r="B49" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="13">
         <v>45385</v>
       </c>
     </row>
@@ -5227,7 +5237,7 @@
       <c r="B50" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="13">
         <v>45386</v>
       </c>
     </row>
@@ -5238,7 +5248,7 @@
       <c r="B51" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="13">
         <v>45387</v>
       </c>
     </row>
@@ -5249,7 +5259,7 @@
       <c r="B52" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="13">
         <v>45388</v>
       </c>
     </row>
@@ -5260,7 +5270,7 @@
       <c r="B53" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="13">
         <v>45389</v>
       </c>
     </row>
@@ -5271,7 +5281,7 @@
       <c r="B54" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="13">
         <v>45390</v>
       </c>
     </row>
@@ -5282,7 +5292,7 @@
       <c r="B55" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="13">
         <v>45391</v>
       </c>
     </row>
@@ -5293,7 +5303,7 @@
       <c r="B56" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="13">
         <v>45392</v>
       </c>
     </row>
@@ -5304,7 +5314,7 @@
       <c r="B57" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="13">
         <v>45393</v>
       </c>
     </row>
@@ -5315,7 +5325,7 @@
       <c r="B58" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="13">
         <v>45394</v>
       </c>
     </row>
@@ -5326,7 +5336,7 @@
       <c r="B59" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="13">
         <v>45395</v>
       </c>
     </row>
@@ -5337,7 +5347,7 @@
       <c r="B60" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="13">
         <v>45396</v>
       </c>
     </row>
@@ -5348,7 +5358,7 @@
       <c r="B61" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="13">
         <v>45397</v>
       </c>
     </row>
@@ -5359,7 +5369,7 @@
       <c r="B62" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="13">
         <v>45398</v>
       </c>
     </row>
@@ -5370,7 +5380,7 @@
       <c r="B63" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="13">
         <v>45399</v>
       </c>
     </row>
@@ -5381,7 +5391,7 @@
       <c r="B64" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="13">
         <v>45400</v>
       </c>
     </row>
@@ -5392,7 +5402,7 @@
       <c r="B65" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="13">
         <v>45401</v>
       </c>
     </row>
@@ -5403,7 +5413,7 @@
       <c r="B66" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="13">
         <v>45402</v>
       </c>
     </row>
@@ -5414,7 +5424,7 @@
       <c r="B67" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="13">
         <v>45403</v>
       </c>
     </row>
@@ -5425,7 +5435,7 @@
       <c r="B68" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="13">
         <v>45404</v>
       </c>
     </row>
@@ -5436,7 +5446,7 @@
       <c r="B69" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="13">
         <v>45405</v>
       </c>
     </row>
@@ -5447,7 +5457,7 @@
       <c r="B70" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="13">
         <v>45406</v>
       </c>
     </row>
@@ -5458,7 +5468,7 @@
       <c r="B71" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="13">
         <v>45407</v>
       </c>
     </row>
@@ -5469,7 +5479,7 @@
       <c r="B72" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="13">
         <v>45408</v>
       </c>
     </row>
@@ -5480,7 +5490,7 @@
       <c r="B73" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="13">
         <v>45409</v>
       </c>
     </row>
@@ -5491,7 +5501,7 @@
       <c r="B74" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="13">
         <v>45410</v>
       </c>
     </row>
@@ -5502,7 +5512,7 @@
       <c r="B75" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="13">
         <v>45411</v>
       </c>
     </row>
@@ -5513,7 +5523,7 @@
       <c r="B76" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="13">
         <v>45412</v>
       </c>
     </row>
@@ -5524,7 +5534,7 @@
       <c r="B77" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="13">
         <v>45413</v>
       </c>
     </row>
@@ -5535,7 +5545,7 @@
       <c r="B78" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="13">
         <v>45414</v>
       </c>
     </row>
@@ -5552,1111 +5562,1132 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3735C9-F926-462E-A039-4B4953B917F4}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G18" activeCellId="1" sqref="F23 G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C1" s="4"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>432</v>
+      </c>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>648</v>
+      </c>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>649</v>
+      </c>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>650</v>
+      </c>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>472</v>
+      </c>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>651</v>
+      </c>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>652</v>
+      </c>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>653</v>
+      </c>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>654</v>
+      </c>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>655</v>
+      </c>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>656</v>
+      </c>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>657</v>
+      </c>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>658</v>
+      </c>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>659</v>
+      </c>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>660</v>
+      </c>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>661</v>
+      </c>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C20" s="8">
-        <v>45360</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C21" s="8">
-        <v>45361</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C22" s="8">
-        <v>45362</v>
+        <v>664</v>
+      </c>
+      <c r="C22" s="13">
+        <v>45360</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C23" s="8">
-        <v>45363</v>
+        <v>665</v>
+      </c>
+      <c r="C23" s="13">
+        <v>45361</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="C24" s="8">
-        <v>45364</v>
+        <v>666</v>
+      </c>
+      <c r="C24" s="13">
+        <v>45362</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="C25" s="8">
-        <v>45365</v>
+        <v>667</v>
+      </c>
+      <c r="C25" s="13">
+        <v>45363</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="C26" s="8">
-        <v>45366</v>
+        <v>668</v>
+      </c>
+      <c r="C26" s="13">
+        <v>45364</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C27" s="8">
-        <v>45367</v>
+        <v>669</v>
+      </c>
+      <c r="C27" s="13">
+        <v>45365</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C28" s="8">
-        <v>45368</v>
+        <v>670</v>
+      </c>
+      <c r="C28" s="13">
+        <v>45366</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="C29" s="8">
-        <v>45369</v>
+        <v>642</v>
+      </c>
+      <c r="C29" s="13">
+        <v>45367</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C30" s="8">
-        <v>45370</v>
+        <v>671</v>
+      </c>
+      <c r="C30" s="13">
+        <v>45368</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C31" s="8">
-        <v>45371</v>
+        <v>672</v>
+      </c>
+      <c r="C31" s="13">
+        <v>45369</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C32" s="8">
-        <v>45372</v>
+        <v>673</v>
+      </c>
+      <c r="C32" s="13">
+        <v>45370</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="C33" s="8">
-        <v>45373</v>
+        <v>674</v>
+      </c>
+      <c r="C33" s="13">
+        <v>45371</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C34" s="8">
-        <v>45374</v>
+        <v>546</v>
+      </c>
+      <c r="C34" s="13">
+        <v>45372</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="C35" s="8">
-        <v>45375</v>
+        <v>675</v>
+      </c>
+      <c r="C35" s="13">
+        <v>45373</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="C36" s="8">
-        <v>45376</v>
+        <v>449</v>
+      </c>
+      <c r="C36" s="13">
+        <v>45374</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C37" s="8">
-        <v>45377</v>
+        <v>676</v>
+      </c>
+      <c r="C37" s="13">
+        <v>45375</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="C38" s="8">
-        <v>45378</v>
+        <v>677</v>
+      </c>
+      <c r="C38" s="13">
+        <v>45376</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="C39" s="8">
-        <v>45379</v>
+        <v>678</v>
+      </c>
+      <c r="C39" s="13">
+        <v>45377</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C40" s="8">
-        <v>45380</v>
+        <v>679</v>
+      </c>
+      <c r="C40" s="13">
+        <v>45378</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C41" s="8">
-        <v>45381</v>
+        <v>680</v>
+      </c>
+      <c r="C41" s="13">
+        <v>45379</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="C42" s="8">
-        <v>45382</v>
+        <v>681</v>
+      </c>
+      <c r="C42" s="13">
+        <v>45380</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C43" s="8">
-        <v>45383</v>
+        <v>621</v>
+      </c>
+      <c r="C43" s="13">
+        <v>45381</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="C44" s="8">
-        <v>45384</v>
+        <v>682</v>
+      </c>
+      <c r="C44" s="13">
+        <v>45382</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="C45" s="8">
-        <v>45385</v>
+        <v>683</v>
+      </c>
+      <c r="C45" s="13">
+        <v>45383</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C46" s="8">
-        <v>45386</v>
+        <v>684</v>
+      </c>
+      <c r="C46" s="13">
+        <v>45384</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="C47" s="8">
-        <v>45387</v>
+        <v>685</v>
+      </c>
+      <c r="C47" s="13">
+        <v>45385</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="C48" s="8">
-        <v>45388</v>
+        <v>658</v>
+      </c>
+      <c r="C48" s="13">
+        <v>45386</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="C49" s="8">
-        <v>45389</v>
+        <v>686</v>
+      </c>
+      <c r="C49" s="13">
+        <v>45387</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="C50" s="8">
-        <v>45390</v>
+        <v>687</v>
+      </c>
+      <c r="C50" s="13">
+        <v>45388</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C51" s="8">
-        <v>45391</v>
+        <v>688</v>
+      </c>
+      <c r="C51" s="13">
+        <v>45389</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C52" s="8">
-        <v>45392</v>
+        <v>689</v>
+      </c>
+      <c r="C52" s="13">
+        <v>45390</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="C53" s="8">
-        <v>45393</v>
+        <v>636</v>
+      </c>
+      <c r="C53" s="13">
+        <v>45391</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C54" s="8">
-        <v>45394</v>
+        <v>683</v>
+      </c>
+      <c r="C54" s="13">
+        <v>45392</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="C55" s="8">
-        <v>45395</v>
+        <v>690</v>
+      </c>
+      <c r="C55" s="13">
+        <v>45393</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="C56" s="8">
-        <v>45396</v>
+        <v>691</v>
+      </c>
+      <c r="C56" s="13">
+        <v>45394</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="C57" s="8">
-        <v>45397</v>
+        <v>692</v>
+      </c>
+      <c r="C57" s="13">
+        <v>45395</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="C58" s="8">
-        <v>45398</v>
+        <v>693</v>
+      </c>
+      <c r="C58" s="13">
+        <v>45396</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="C59" s="8">
-        <v>45399</v>
+        <v>694</v>
+      </c>
+      <c r="C59" s="13">
+        <v>45397</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="C60" s="8">
-        <v>45400</v>
+        <v>695</v>
+      </c>
+      <c r="C60" s="13">
+        <v>45398</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C61" s="8">
-        <v>45401</v>
+        <v>696</v>
+      </c>
+      <c r="C61" s="13">
+        <v>45399</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="C62" s="8">
-        <v>45402</v>
+        <v>507</v>
+      </c>
+      <c r="C62" s="13">
+        <v>45400</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="C63" s="8">
-        <v>45403</v>
+        <v>697</v>
+      </c>
+      <c r="C63" s="13">
+        <v>45401</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C64" s="8">
-        <v>45404</v>
+        <v>698</v>
+      </c>
+      <c r="C64" s="13">
+        <v>45402</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="C65" s="8">
-        <v>45405</v>
+        <v>699</v>
+      </c>
+      <c r="C65" s="13">
+        <v>45403</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="C66" s="8">
-        <v>45406</v>
+        <v>470</v>
+      </c>
+      <c r="C66" s="13">
+        <v>45404</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C67" s="8">
-        <v>45407</v>
+        <v>700</v>
+      </c>
+      <c r="C67" s="13">
+        <v>45405</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="C68" s="8">
-        <v>45408</v>
+        <v>701</v>
+      </c>
+      <c r="C68" s="13">
+        <v>45406</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C69" s="8">
-        <v>45409</v>
+        <v>702</v>
+      </c>
+      <c r="C69" s="13">
+        <v>45407</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C70" s="8">
-        <v>45410</v>
+        <v>703</v>
+      </c>
+      <c r="C70" s="13">
+        <v>45408</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="C71" s="8">
-        <v>45411</v>
+        <v>704</v>
+      </c>
+      <c r="C71" s="13">
+        <v>45409</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="C72" s="8">
-        <v>45412</v>
+        <v>705</v>
+      </c>
+      <c r="C72" s="13">
+        <v>45410</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="C73" s="8">
-        <v>45413</v>
+        <v>706</v>
+      </c>
+      <c r="C73" s="13">
+        <v>45411</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C74" s="8">
-        <v>45414</v>
+        <v>707</v>
+      </c>
+      <c r="C74" s="13">
+        <v>45412</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="C75" s="8">
-        <v>45415</v>
+        <v>708</v>
+      </c>
+      <c r="C75" s="13">
+        <v>45413</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="C76" s="8">
-        <v>45416</v>
+        <v>709</v>
+      </c>
+      <c r="C76" s="13">
+        <v>45414</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="C77" s="8">
-        <v>45417</v>
+        <v>710</v>
+      </c>
+      <c r="C77" s="13">
+        <v>45415</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C78" s="8">
-        <v>45418</v>
+        <v>711</v>
+      </c>
+      <c r="C78" s="13">
+        <v>45416</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C79" s="8">
-        <v>45419</v>
+        <v>712</v>
+      </c>
+      <c r="C79" s="13">
+        <v>45417</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C80" s="8">
-        <v>45420</v>
+        <v>650</v>
+      </c>
+      <c r="C80" s="13">
+        <v>45418</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="C81" s="8">
-        <v>45421</v>
+        <v>713</v>
+      </c>
+      <c r="C81" s="13">
+        <v>45419</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C82" s="8">
-        <v>45422</v>
+        <v>714</v>
+      </c>
+      <c r="C82" s="13">
+        <v>45420</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="C83" s="8">
-        <v>45423</v>
+        <v>715</v>
+      </c>
+      <c r="C83" s="13">
+        <v>45421</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="C84" s="8">
-        <v>45424</v>
+        <v>716</v>
+      </c>
+      <c r="C84" s="13">
+        <v>45422</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="C85" s="8">
-        <v>45425</v>
+        <v>717</v>
+      </c>
+      <c r="C85" s="13">
+        <v>45423</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="C86" s="8">
-        <v>45426</v>
+        <v>718</v>
+      </c>
+      <c r="C86" s="13">
+        <v>45424</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="C87" s="8">
-        <v>45427</v>
+        <v>719</v>
+      </c>
+      <c r="C87" s="13">
+        <v>45425</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="C88" s="8">
-        <v>45428</v>
+        <v>720</v>
+      </c>
+      <c r="C88" s="13">
+        <v>45426</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C89" s="8">
-        <v>45429</v>
+        <v>721</v>
+      </c>
+      <c r="C89" s="13">
+        <v>45427</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="C90" s="8">
-        <v>45430</v>
+        <v>722</v>
+      </c>
+      <c r="C90" s="13">
+        <v>45428</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="C91" s="8">
-        <v>45431</v>
+        <v>673</v>
+      </c>
+      <c r="C91" s="13">
+        <v>45429</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="C92" s="8">
-        <v>45432</v>
+        <v>723</v>
+      </c>
+      <c r="C92" s="13">
+        <v>45430</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="C93" s="8">
-        <v>45433</v>
+        <v>724</v>
+      </c>
+      <c r="C93" s="13">
+        <v>45431</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="C94" s="8">
-        <v>45434</v>
+        <v>725</v>
+      </c>
+      <c r="C94" s="13">
+        <v>45432</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C95" s="8">
-        <v>45435</v>
+        <v>623</v>
+      </c>
+      <c r="C95" s="13">
+        <v>45433</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="C96" s="8">
-        <v>45436</v>
+        <v>726</v>
+      </c>
+      <c r="C96" s="13">
+        <v>45434</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="C97" s="8">
-        <v>45437</v>
+        <v>727</v>
+      </c>
+      <c r="C97" s="13">
+        <v>45435</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="C98" s="8">
-        <v>45438</v>
+        <v>728</v>
+      </c>
+      <c r="C98" s="13">
+        <v>45436</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C99" s="13">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C100" s="13">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B101" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C101" s="13">
         <v>45439</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="14"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="14"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="2"/>
+      <c r="C104" s="14"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="2"/>
+      <c r="C105" s="14"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="2"/>
+      <c r="C106" s="14"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6667,31 +6698,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAED3EB-2789-40D1-A0AC-574CA9AE9ABF}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -6700,7 +6731,7 @@
       <c r="B3" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6709,7 +6740,7 @@
       <c r="B4" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -6718,7 +6749,7 @@
       <c r="B5" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -6727,7 +6758,7 @@
       <c r="B6" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -6736,7 +6767,7 @@
       <c r="B7" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -6745,7 +6776,7 @@
       <c r="B8" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -6754,7 +6785,7 @@
       <c r="B9" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -6763,7 +6794,7 @@
       <c r="B10" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -6772,7 +6803,7 @@
       <c r="B11" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -6781,7 +6812,7 @@
       <c r="B12" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -6790,7 +6821,7 @@
       <c r="B13" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -6799,7 +6830,7 @@
       <c r="B14" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -6808,7 +6839,7 @@
       <c r="B15" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -6817,7 +6848,7 @@
       <c r="B16" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6826,7 +6857,7 @@
       <c r="B17" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -6835,7 +6866,7 @@
       <c r="B18" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -6844,7 +6875,7 @@
       <c r="B19" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -6853,7 +6884,7 @@
       <c r="B20" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -6862,7 +6893,7 @@
       <c r="B21" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -6871,7 +6902,7 @@
       <c r="B22" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -6880,7 +6911,7 @@
       <c r="B23" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -6889,7 +6920,7 @@
       <c r="B24" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -6898,7 +6929,7 @@
       <c r="B25" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -6907,7 +6938,7 @@
       <c r="B26" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -6916,7 +6947,7 @@
       <c r="B27" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -6925,7 +6956,7 @@
       <c r="B28" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -6934,7 +6965,7 @@
       <c r="B29" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -6943,7 +6974,7 @@
       <c r="B30" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -6952,7 +6983,7 @@
       <c r="B31" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -6961,7 +6992,7 @@
       <c r="B32" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -6970,7 +7001,7 @@
       <c r="B33" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -6979,7 +7010,7 @@
       <c r="B34" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -6988,7 +7019,7 @@
       <c r="B35" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -6997,7 +7028,7 @@
       <c r="B36" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -7006,7 +7037,7 @@
       <c r="B37" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -7015,7 +7046,7 @@
       <c r="B38" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -7024,7 +7055,7 @@
       <c r="B39" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -7033,7 +7064,7 @@
       <c r="B40" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -7042,7 +7073,7 @@
       <c r="B41" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -7051,7 +7082,7 @@
       <c r="B42" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -7060,7 +7091,7 @@
       <c r="B43" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -7069,7 +7100,7 @@
       <c r="B44" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -7078,7 +7109,7 @@
       <c r="B45" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -7087,7 +7118,7 @@
       <c r="B46" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -7096,7 +7127,7 @@
       <c r="B47" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -7105,7 +7136,7 @@
       <c r="B48" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -7114,7 +7145,7 @@
       <c r="B49" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -7123,7 +7154,7 @@
       <c r="B50" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -7132,7 +7163,7 @@
       <c r="B51" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -7141,7 +7172,7 @@
       <c r="B52" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -7150,7 +7181,7 @@
       <c r="B53" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -7159,7 +7190,7 @@
       <c r="B54" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -7168,7 +7199,7 @@
       <c r="B55" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -7177,7 +7208,7 @@
       <c r="B56" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -7186,7 +7217,7 @@
       <c r="B57" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -7195,7 +7226,7 @@
       <c r="B58" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -7204,7 +7235,7 @@
       <c r="B59" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -7213,7 +7244,7 @@
       <c r="B60" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -7222,7 +7253,7 @@
       <c r="B61" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -7231,7 +7262,7 @@
       <c r="B62" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -7240,7 +7271,7 @@
       <c r="B63" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -7249,7 +7280,7 @@
       <c r="B64" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -7258,7 +7289,7 @@
       <c r="B65" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -7267,7 +7298,7 @@
       <c r="B66" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C66" s="4"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -7276,7 +7307,7 @@
       <c r="B67" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -7285,7 +7316,7 @@
       <c r="B68" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
@@ -7294,7 +7325,7 @@
       <c r="B69" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -7303,7 +7334,7 @@
       <c r="B70" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -7312,7 +7343,7 @@
       <c r="B71" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -7321,7 +7352,7 @@
       <c r="B72" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="C72" s="4"/>
+      <c r="C72" s="13"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -7330,7 +7361,7 @@
       <c r="B73" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C73" s="4"/>
+      <c r="C73" s="13"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -7339,7 +7370,7 @@
       <c r="B74" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="C74" s="4"/>
+      <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -7348,147 +7379,147 @@
       <c r="B75" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C75" s="4"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="14"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="14"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="14"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="14"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="14"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="14"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="14"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="C101" s="14"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="14"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/408.xlsx
+++ b/408.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25750\Desktop\ebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F70BA-2D12-4000-B075-2F6A019C3119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606CEBA-5189-422E-872B-26461AB5AC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2414,7 +2414,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2430,6 +2430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,7 +2493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2503,6 +2509,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2515,16 +2525,11 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2841,32 +2846,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9223FCB-0523-4E13-BE48-901E8AF65A92}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2875,7 +2880,7 @@
       <c r="B3" s="5">
         <v>0.19236111111111112</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2884,7 +2889,7 @@
       <c r="B4" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2893,7 +2898,7 @@
       <c r="B5" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2902,7 +2907,7 @@
       <c r="B6" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2911,7 +2916,7 @@
       <c r="B7" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2920,7 +2925,7 @@
       <c r="B8" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2929,7 +2934,7 @@
       <c r="B9" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2938,7 +2943,7 @@
       <c r="B10" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2947,7 +2952,7 @@
       <c r="B11" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2956,7 +2961,7 @@
       <c r="B12" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2965,7 +2970,7 @@
       <c r="B13" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2974,7 +2979,7 @@
       <c r="B14" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2983,7 +2988,7 @@
       <c r="B15" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2992,7 +2997,7 @@
       <c r="B16" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3001,7 +3006,7 @@
       <c r="B17" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -3010,7 +3015,7 @@
       <c r="B18" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3019,7 +3024,7 @@
       <c r="B19" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -3028,7 +3033,7 @@
       <c r="B20" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3037,7 +3042,7 @@
       <c r="B21" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3046,7 +3051,7 @@
       <c r="B22" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3055,7 +3060,7 @@
       <c r="B23" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -3064,38 +3069,38 @@
       <c r="B24" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="17">
         <v>45360</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="17">
         <v>45361</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="17">
         <v>45362</v>
       </c>
     </row>
@@ -3106,7 +3111,7 @@
       <c r="B28" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <v>45363</v>
       </c>
     </row>
@@ -3117,7 +3122,7 @@
       <c r="B29" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>45364</v>
       </c>
     </row>
@@ -3128,7 +3133,7 @@
       <c r="B30" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="7">
         <v>45365</v>
       </c>
     </row>
@@ -3139,7 +3144,7 @@
       <c r="B31" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>45366</v>
       </c>
     </row>
@@ -3150,7 +3155,7 @@
       <c r="B32" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="7">
         <v>45367</v>
       </c>
     </row>
@@ -3161,7 +3166,7 @@
       <c r="B33" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="7">
         <v>45368</v>
       </c>
     </row>
@@ -3172,7 +3177,7 @@
       <c r="B34" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="7">
         <v>45369</v>
       </c>
     </row>
@@ -3183,7 +3188,7 @@
       <c r="B35" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>45370</v>
       </c>
     </row>
@@ -3194,7 +3199,7 @@
       <c r="B36" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="7">
         <v>45371</v>
       </c>
     </row>
@@ -3205,7 +3210,7 @@
       <c r="B37" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="7">
         <v>45372</v>
       </c>
     </row>
@@ -3216,7 +3221,7 @@
       <c r="B38" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="7">
         <v>45373</v>
       </c>
     </row>
@@ -3227,7 +3232,7 @@
       <c r="B39" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>45374</v>
       </c>
     </row>
@@ -3238,7 +3243,7 @@
       <c r="B40" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="7">
         <v>45375</v>
       </c>
     </row>
@@ -3249,7 +3254,7 @@
       <c r="B41" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="7">
         <v>45376</v>
       </c>
     </row>
@@ -3260,7 +3265,7 @@
       <c r="B42" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="7">
         <v>45377</v>
       </c>
     </row>
@@ -3271,7 +3276,7 @@
       <c r="B43" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>45378</v>
       </c>
     </row>
@@ -3282,7 +3287,7 @@
       <c r="B44" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="7">
         <v>45379</v>
       </c>
     </row>
@@ -3293,7 +3298,7 @@
       <c r="B45" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>45380</v>
       </c>
     </row>
@@ -3304,7 +3309,7 @@
       <c r="B46" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="7">
         <v>45381</v>
       </c>
     </row>
@@ -3315,7 +3320,7 @@
       <c r="B47" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="7">
         <v>45382</v>
       </c>
     </row>
@@ -3326,7 +3331,7 @@
       <c r="B48" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="7">
         <v>45383</v>
       </c>
     </row>
@@ -3337,7 +3342,7 @@
       <c r="B49" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="7">
         <v>45384</v>
       </c>
     </row>
@@ -3348,7 +3353,7 @@
       <c r="B50" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="7">
         <v>45385</v>
       </c>
     </row>
@@ -3359,7 +3364,7 @@
       <c r="B51" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="7">
         <v>45386</v>
       </c>
     </row>
@@ -3370,7 +3375,7 @@
       <c r="B52" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="7">
         <v>45387</v>
       </c>
     </row>
@@ -3381,7 +3386,7 @@
       <c r="B53" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="7">
         <v>45388</v>
       </c>
     </row>
@@ -3392,7 +3397,7 @@
       <c r="B54" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="7">
         <v>45389</v>
       </c>
     </row>
@@ -3403,7 +3408,7 @@
       <c r="B55" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="7">
         <v>45390</v>
       </c>
     </row>
@@ -3414,7 +3419,7 @@
       <c r="B56" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="7">
         <v>45391</v>
       </c>
     </row>
@@ -3425,7 +3430,7 @@
       <c r="B57" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="7">
         <v>45392</v>
       </c>
     </row>
@@ -3436,7 +3441,7 @@
       <c r="B58" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="7">
         <v>45393</v>
       </c>
     </row>
@@ -3447,7 +3452,7 @@
       <c r="B59" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="7">
         <v>45394</v>
       </c>
     </row>
@@ -3458,7 +3463,7 @@
       <c r="B60" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="7">
         <v>45395</v>
       </c>
     </row>
@@ -3469,7 +3474,7 @@
       <c r="B61" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="7">
         <v>45396</v>
       </c>
     </row>
@@ -3480,7 +3485,7 @@
       <c r="B62" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="7">
         <v>45397</v>
       </c>
     </row>
@@ -3491,7 +3496,7 @@
       <c r="B63" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="7">
         <v>45398</v>
       </c>
     </row>
@@ -3502,7 +3507,7 @@
       <c r="B64" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="7">
         <v>45399</v>
       </c>
     </row>
@@ -3513,7 +3518,7 @@
       <c r="B65" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="7">
         <v>45400</v>
       </c>
     </row>
@@ -3524,7 +3529,7 @@
       <c r="B66" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="7">
         <v>45401</v>
       </c>
     </row>
@@ -3535,7 +3540,7 @@
       <c r="B67" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="7">
         <v>45402</v>
       </c>
     </row>
@@ -3546,7 +3551,7 @@
       <c r="B68" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="7">
         <v>45403</v>
       </c>
     </row>
@@ -3557,7 +3562,7 @@
       <c r="B69" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="7">
         <v>45404</v>
       </c>
     </row>
@@ -3568,7 +3573,7 @@
       <c r="B70" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="7">
         <v>45405</v>
       </c>
     </row>
@@ -3579,7 +3584,7 @@
       <c r="B71" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="7">
         <v>45406</v>
       </c>
     </row>
@@ -3590,7 +3595,7 @@
       <c r="B72" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="7">
         <v>45407</v>
       </c>
     </row>
@@ -3601,7 +3606,7 @@
       <c r="B73" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="7">
         <v>45408</v>
       </c>
     </row>
@@ -3612,7 +3617,7 @@
       <c r="B74" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="7">
         <v>45409</v>
       </c>
     </row>
@@ -3623,7 +3628,7 @@
       <c r="B75" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="7">
         <v>45410</v>
       </c>
     </row>
@@ -3634,7 +3639,7 @@
       <c r="B76" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="7">
         <v>45411</v>
       </c>
     </row>
@@ -3645,7 +3650,7 @@
       <c r="B77" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="7">
         <v>45412</v>
       </c>
     </row>
@@ -3656,7 +3661,7 @@
       <c r="B78" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="7">
         <v>45413</v>
       </c>
     </row>
@@ -3667,7 +3672,7 @@
       <c r="B79" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="7">
         <v>45414</v>
       </c>
     </row>
@@ -3678,7 +3683,7 @@
       <c r="B80" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="7">
         <v>45415</v>
       </c>
     </row>
@@ -3689,7 +3694,7 @@
       <c r="B81" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="7">
         <v>45416</v>
       </c>
     </row>
@@ -3700,7 +3705,7 @@
       <c r="B82" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="7">
         <v>45417</v>
       </c>
     </row>
@@ -3711,7 +3716,7 @@
       <c r="B83" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="7">
         <v>45418</v>
       </c>
     </row>
@@ -3722,7 +3727,7 @@
       <c r="B84" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="7">
         <v>45419</v>
       </c>
     </row>
@@ -3733,7 +3738,7 @@
       <c r="B85" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="7">
         <v>45420</v>
       </c>
     </row>
@@ -3744,7 +3749,7 @@
       <c r="B86" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="7">
         <v>45421</v>
       </c>
     </row>
@@ -3764,31 +3769,31 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3797,7 +3802,7 @@
       <c r="B3" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3806,7 +3811,7 @@
       <c r="B4" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3815,7 +3820,7 @@
       <c r="B5" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3824,7 +3829,7 @@
       <c r="B6" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3833,7 +3838,7 @@
       <c r="B7" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3842,7 +3847,7 @@
       <c r="B8" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -3851,7 +3856,7 @@
       <c r="B9" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -3860,7 +3865,7 @@
       <c r="B10" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -3869,7 +3874,7 @@
       <c r="B11" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3878,7 +3883,7 @@
       <c r="B12" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3887,7 +3892,7 @@
       <c r="B13" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3896,7 +3901,7 @@
       <c r="B14" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3905,7 +3910,7 @@
       <c r="B15" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -3914,7 +3919,7 @@
       <c r="B16" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3923,7 +3928,7 @@
       <c r="B17" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -3932,7 +3937,7 @@
       <c r="B18" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3941,38 +3946,38 @@
       <c r="B19" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="17">
         <v>45360</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="17">
         <v>45361</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="17">
         <v>45362</v>
       </c>
     </row>
@@ -3983,7 +3988,7 @@
       <c r="B23" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>45363</v>
       </c>
     </row>
@@ -3994,7 +3999,7 @@
       <c r="B24" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>45364</v>
       </c>
     </row>
@@ -4005,7 +4010,7 @@
       <c r="B25" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <v>45365</v>
       </c>
     </row>
@@ -4016,7 +4021,7 @@
       <c r="B26" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="9">
         <v>45366</v>
       </c>
     </row>
@@ -4027,7 +4032,7 @@
       <c r="B27" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="9">
         <v>45367</v>
       </c>
     </row>
@@ -4038,7 +4043,7 @@
       <c r="B28" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="9">
         <v>45368</v>
       </c>
     </row>
@@ -4049,7 +4054,7 @@
       <c r="B29" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="9">
         <v>45369</v>
       </c>
     </row>
@@ -4060,7 +4065,7 @@
       <c r="B30" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="9">
         <v>45370</v>
       </c>
     </row>
@@ -4071,7 +4076,7 @@
       <c r="B31" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="9">
         <v>45371</v>
       </c>
     </row>
@@ -4082,7 +4087,7 @@
       <c r="B32" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="9">
         <v>45372</v>
       </c>
     </row>
@@ -4093,7 +4098,7 @@
       <c r="B33" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>45373</v>
       </c>
     </row>
@@ -4104,7 +4109,7 @@
       <c r="B34" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="9">
         <v>45374</v>
       </c>
     </row>
@@ -4115,7 +4120,7 @@
       <c r="B35" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="9">
         <v>45375</v>
       </c>
     </row>
@@ -4126,7 +4131,7 @@
       <c r="B36" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <v>45376</v>
       </c>
     </row>
@@ -4137,7 +4142,7 @@
       <c r="B37" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>45377</v>
       </c>
     </row>
@@ -4148,7 +4153,7 @@
       <c r="B38" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>45378</v>
       </c>
     </row>
@@ -4159,7 +4164,7 @@
       <c r="B39" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="9">
         <v>45379</v>
       </c>
     </row>
@@ -4170,7 +4175,7 @@
       <c r="B40" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="9">
         <v>45380</v>
       </c>
     </row>
@@ -4181,7 +4186,7 @@
       <c r="B41" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="9">
         <v>45381</v>
       </c>
     </row>
@@ -4192,7 +4197,7 @@
       <c r="B42" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="9">
         <v>45382</v>
       </c>
     </row>
@@ -4203,7 +4208,7 @@
       <c r="B43" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="9">
         <v>45383</v>
       </c>
     </row>
@@ -4214,7 +4219,7 @@
       <c r="B44" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="9">
         <v>45384</v>
       </c>
     </row>
@@ -4225,7 +4230,7 @@
       <c r="B45" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="9">
         <v>45385</v>
       </c>
     </row>
@@ -4236,7 +4241,7 @@
       <c r="B46" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="9">
         <v>45386</v>
       </c>
     </row>
@@ -4247,7 +4252,7 @@
       <c r="B47" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="9">
         <v>45387</v>
       </c>
     </row>
@@ -4258,7 +4263,7 @@
       <c r="B48" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="9">
         <v>45388</v>
       </c>
     </row>
@@ -4269,7 +4274,7 @@
       <c r="B49" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="9">
         <v>45389</v>
       </c>
     </row>
@@ -4280,7 +4285,7 @@
       <c r="B50" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="9">
         <v>45390</v>
       </c>
     </row>
@@ -4291,7 +4296,7 @@
       <c r="B51" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="9">
         <v>45391</v>
       </c>
     </row>
@@ -4302,7 +4307,7 @@
       <c r="B52" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="9">
         <v>45392</v>
       </c>
     </row>
@@ -4313,7 +4318,7 @@
       <c r="B53" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="9">
         <v>45393</v>
       </c>
     </row>
@@ -4324,7 +4329,7 @@
       <c r="B54" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -4335,7 +4340,7 @@
       <c r="B55" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="9">
         <v>45395</v>
       </c>
     </row>
@@ -4346,7 +4351,7 @@
       <c r="B56" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="9">
         <v>45396</v>
       </c>
     </row>
@@ -4357,7 +4362,7 @@
       <c r="B57" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="9">
         <v>45397</v>
       </c>
     </row>
@@ -4368,7 +4373,7 @@
       <c r="B58" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="9">
         <v>45398</v>
       </c>
     </row>
@@ -4379,7 +4384,7 @@
       <c r="B59" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="9">
         <v>45399</v>
       </c>
     </row>
@@ -4390,7 +4395,7 @@
       <c r="B60" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="9">
         <v>45400</v>
       </c>
     </row>
@@ -4401,7 +4406,7 @@
       <c r="B61" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="9">
         <v>45401</v>
       </c>
     </row>
@@ -4412,7 +4417,7 @@
       <c r="B62" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="9">
         <v>45402</v>
       </c>
     </row>
@@ -4423,7 +4428,7 @@
       <c r="B63" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="9">
         <v>45403</v>
       </c>
     </row>
@@ -4434,7 +4439,7 @@
       <c r="B64" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="9">
         <v>45404</v>
       </c>
     </row>
@@ -4445,7 +4450,7 @@
       <c r="B65" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="9">
         <v>45405</v>
       </c>
     </row>
@@ -4456,7 +4461,7 @@
       <c r="B66" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="9">
         <v>45406</v>
       </c>
     </row>
@@ -4467,7 +4472,7 @@
       <c r="B67" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="9">
         <v>45407</v>
       </c>
     </row>
@@ -4478,7 +4483,7 @@
       <c r="B68" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="9">
         <v>45408</v>
       </c>
     </row>
@@ -4489,7 +4494,7 @@
       <c r="B69" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="9">
         <v>45409</v>
       </c>
     </row>
@@ -4500,7 +4505,7 @@
       <c r="B70" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="9">
         <v>45410</v>
       </c>
     </row>
@@ -4511,7 +4516,7 @@
       <c r="B71" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="9">
         <v>45411</v>
       </c>
     </row>
@@ -4522,7 +4527,7 @@
       <c r="B72" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="9">
         <v>45412</v>
       </c>
     </row>
@@ -4533,7 +4538,7 @@
       <c r="B73" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="9">
         <v>45413</v>
       </c>
     </row>
@@ -4544,7 +4549,7 @@
       <c r="B74" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="9">
         <v>45414</v>
       </c>
     </row>
@@ -4555,7 +4560,7 @@
       <c r="B75" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="9">
         <v>45415</v>
       </c>
     </row>
@@ -4566,7 +4571,7 @@
       <c r="B76" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="9">
         <v>45416</v>
       </c>
     </row>
@@ -4577,7 +4582,7 @@
       <c r="B77" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="9">
         <v>45417</v>
       </c>
     </row>
@@ -4588,7 +4593,7 @@
       <c r="B78" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="9">
         <v>45418</v>
       </c>
     </row>
@@ -4599,7 +4604,7 @@
       <c r="B79" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="9">
         <v>45419</v>
       </c>
     </row>
@@ -4610,7 +4615,7 @@
       <c r="B80" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="9">
         <v>45420</v>
       </c>
     </row>
@@ -4621,7 +4626,7 @@
       <c r="B81" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="9">
         <v>45421</v>
       </c>
     </row>
@@ -4632,7 +4637,7 @@
       <c r="B82" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="9">
         <v>45422</v>
       </c>
     </row>
@@ -4643,7 +4648,7 @@
       <c r="B83" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="9">
         <v>45423</v>
       </c>
     </row>
@@ -4654,7 +4659,7 @@
       <c r="B84" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="9">
         <v>45424</v>
       </c>
     </row>
@@ -4665,7 +4670,7 @@
       <c r="B85" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="9">
         <v>45425</v>
       </c>
     </row>
@@ -4676,7 +4681,7 @@
       <c r="B86" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="9">
         <v>45426</v>
       </c>
     </row>
@@ -4687,7 +4692,7 @@
       <c r="B87" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="9">
         <v>45427</v>
       </c>
     </row>
@@ -4698,7 +4703,7 @@
       <c r="B88" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="9">
         <v>45428</v>
       </c>
     </row>
@@ -4709,7 +4714,7 @@
       <c r="B89" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="9">
         <v>45429</v>
       </c>
     </row>
@@ -4729,31 +4734,31 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C26" sqref="A24:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -4762,7 +4767,7 @@
       <c r="B3" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4771,7 +4776,7 @@
       <c r="B4" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -4780,7 +4785,7 @@
       <c r="B5" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -4789,7 +4794,7 @@
       <c r="B6" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -4798,7 +4803,7 @@
       <c r="B7" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -4807,7 +4812,7 @@
       <c r="B8" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -4816,7 +4821,7 @@
       <c r="B9" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -4825,7 +4830,7 @@
       <c r="B10" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -4834,7 +4839,7 @@
       <c r="B11" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4843,7 +4848,7 @@
       <c r="B12" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -4852,7 +4857,7 @@
       <c r="B13" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -4861,7 +4866,7 @@
       <c r="B14" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -4870,7 +4875,7 @@
       <c r="B15" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -4879,7 +4884,7 @@
       <c r="B16" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4888,7 +4893,7 @@
       <c r="B17" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -4897,7 +4902,7 @@
       <c r="B18" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -4906,7 +4911,7 @@
       <c r="B19" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -4915,7 +4920,7 @@
       <c r="B20" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -4924,7 +4929,7 @@
       <c r="B21" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -4933,7 +4938,7 @@
       <c r="B22" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4942,38 +4947,38 @@
       <c r="B23" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="17">
         <v>45360</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="17">
         <v>45361</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="17">
         <v>45362</v>
       </c>
     </row>
@@ -4984,7 +4989,7 @@
       <c r="B27" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="9">
         <v>45363</v>
       </c>
     </row>
@@ -4995,7 +5000,7 @@
       <c r="B28" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="9">
         <v>45364</v>
       </c>
     </row>
@@ -5006,7 +5011,7 @@
       <c r="B29" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="9">
         <v>45365</v>
       </c>
     </row>
@@ -5017,7 +5022,7 @@
       <c r="B30" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="9">
         <v>45366</v>
       </c>
     </row>
@@ -5028,7 +5033,7 @@
       <c r="B31" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="9">
         <v>45367</v>
       </c>
     </row>
@@ -5039,7 +5044,7 @@
       <c r="B32" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="9">
         <v>45368</v>
       </c>
     </row>
@@ -5050,7 +5055,7 @@
       <c r="B33" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>45369</v>
       </c>
     </row>
@@ -5061,7 +5066,7 @@
       <c r="B34" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="9">
         <v>45370</v>
       </c>
     </row>
@@ -5072,7 +5077,7 @@
       <c r="B35" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="9">
         <v>45371</v>
       </c>
     </row>
@@ -5083,7 +5088,7 @@
       <c r="B36" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <v>45372</v>
       </c>
     </row>
@@ -5094,7 +5099,7 @@
       <c r="B37" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>45373</v>
       </c>
     </row>
@@ -5105,7 +5110,7 @@
       <c r="B38" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>45374</v>
       </c>
     </row>
@@ -5116,7 +5121,7 @@
       <c r="B39" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="9">
         <v>45375</v>
       </c>
     </row>
@@ -5127,7 +5132,7 @@
       <c r="B40" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="9">
         <v>45376</v>
       </c>
     </row>
@@ -5138,7 +5143,7 @@
       <c r="B41" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="9">
         <v>45377</v>
       </c>
     </row>
@@ -5149,7 +5154,7 @@
       <c r="B42" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="9">
         <v>45378</v>
       </c>
     </row>
@@ -5160,7 +5165,7 @@
       <c r="B43" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="9">
         <v>45379</v>
       </c>
     </row>
@@ -5171,7 +5176,7 @@
       <c r="B44" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="9">
         <v>45380</v>
       </c>
     </row>
@@ -5182,7 +5187,7 @@
       <c r="B45" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="9">
         <v>45381</v>
       </c>
     </row>
@@ -5193,7 +5198,7 @@
       <c r="B46" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="9">
         <v>45382</v>
       </c>
     </row>
@@ -5204,7 +5209,7 @@
       <c r="B47" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="9">
         <v>45383</v>
       </c>
     </row>
@@ -5215,7 +5220,7 @@
       <c r="B48" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="9">
         <v>45384</v>
       </c>
     </row>
@@ -5226,7 +5231,7 @@
       <c r="B49" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="9">
         <v>45385</v>
       </c>
     </row>
@@ -5237,7 +5242,7 @@
       <c r="B50" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="9">
         <v>45386</v>
       </c>
     </row>
@@ -5248,7 +5253,7 @@
       <c r="B51" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="9">
         <v>45387</v>
       </c>
     </row>
@@ -5259,7 +5264,7 @@
       <c r="B52" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="9">
         <v>45388</v>
       </c>
     </row>
@@ -5270,7 +5275,7 @@
       <c r="B53" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="9">
         <v>45389</v>
       </c>
     </row>
@@ -5281,7 +5286,7 @@
       <c r="B54" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="9">
         <v>45390</v>
       </c>
     </row>
@@ -5292,7 +5297,7 @@
       <c r="B55" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="9">
         <v>45391</v>
       </c>
     </row>
@@ -5303,7 +5308,7 @@
       <c r="B56" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="9">
         <v>45392</v>
       </c>
     </row>
@@ -5314,7 +5319,7 @@
       <c r="B57" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="9">
         <v>45393</v>
       </c>
     </row>
@@ -5325,7 +5330,7 @@
       <c r="B58" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -5336,7 +5341,7 @@
       <c r="B59" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="9">
         <v>45395</v>
       </c>
     </row>
@@ -5347,7 +5352,7 @@
       <c r="B60" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="9">
         <v>45396</v>
       </c>
     </row>
@@ -5358,7 +5363,7 @@
       <c r="B61" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="9">
         <v>45397</v>
       </c>
     </row>
@@ -5369,7 +5374,7 @@
       <c r="B62" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="9">
         <v>45398</v>
       </c>
     </row>
@@ -5380,7 +5385,7 @@
       <c r="B63" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="9">
         <v>45399</v>
       </c>
     </row>
@@ -5391,7 +5396,7 @@
       <c r="B64" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="9">
         <v>45400</v>
       </c>
     </row>
@@ -5402,7 +5407,7 @@
       <c r="B65" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="9">
         <v>45401</v>
       </c>
     </row>
@@ -5413,7 +5418,7 @@
       <c r="B66" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="9">
         <v>45402</v>
       </c>
     </row>
@@ -5424,7 +5429,7 @@
       <c r="B67" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="9">
         <v>45403</v>
       </c>
     </row>
@@ -5435,7 +5440,7 @@
       <c r="B68" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="9">
         <v>45404</v>
       </c>
     </row>
@@ -5446,7 +5451,7 @@
       <c r="B69" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="9">
         <v>45405</v>
       </c>
     </row>
@@ -5457,7 +5462,7 @@
       <c r="B70" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="9">
         <v>45406</v>
       </c>
     </row>
@@ -5468,7 +5473,7 @@
       <c r="B71" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="9">
         <v>45407</v>
       </c>
     </row>
@@ -5479,7 +5484,7 @@
       <c r="B72" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="9">
         <v>45408</v>
       </c>
     </row>
@@ -5490,7 +5495,7 @@
       <c r="B73" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="9">
         <v>45409</v>
       </c>
     </row>
@@ -5501,7 +5506,7 @@
       <c r="B74" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="9">
         <v>45410</v>
       </c>
     </row>
@@ -5512,7 +5517,7 @@
       <c r="B75" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="9">
         <v>45411</v>
       </c>
     </row>
@@ -5523,7 +5528,7 @@
       <c r="B76" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="9">
         <v>45412</v>
       </c>
     </row>
@@ -5534,7 +5539,7 @@
       <c r="B77" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="9">
         <v>45413</v>
       </c>
     </row>
@@ -5545,7 +5550,7 @@
       <c r="B78" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="9">
         <v>45414</v>
       </c>
     </row>
@@ -5565,31 +5570,31 @@
   <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C28" sqref="A25:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -5598,7 +5603,7 @@
       <c r="B3" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5607,7 +5612,7 @@
       <c r="B4" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -5616,7 +5621,7 @@
       <c r="B5" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -5625,7 +5630,7 @@
       <c r="B6" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -5634,7 +5639,7 @@
       <c r="B7" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -5643,7 +5648,7 @@
       <c r="B8" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -5652,7 +5657,7 @@
       <c r="B9" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -5661,7 +5666,7 @@
       <c r="B10" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -5670,7 +5675,7 @@
       <c r="B11" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -5679,7 +5684,7 @@
       <c r="B12" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -5688,7 +5693,7 @@
       <c r="B13" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -5697,7 +5702,7 @@
       <c r="B14" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -5706,7 +5711,7 @@
       <c r="B15" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -5715,7 +5720,7 @@
       <c r="B16" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5724,7 +5729,7 @@
       <c r="B17" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -5733,7 +5738,7 @@
       <c r="B18" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -5742,7 +5747,7 @@
       <c r="B19" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -5751,7 +5756,7 @@
       <c r="B20" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -5760,82 +5765,82 @@
       <c r="B21" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="17">
         <v>45360</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="17">
         <v>45361</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="17">
         <v>45362</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="17">
         <v>45363</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="17">
         <v>45364</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="17">
         <v>45365</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="17">
         <v>45366</v>
       </c>
     </row>
@@ -5846,7 +5851,7 @@
       <c r="B29" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="9">
         <v>45367</v>
       </c>
     </row>
@@ -5857,7 +5862,7 @@
       <c r="B30" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="9">
         <v>45368</v>
       </c>
     </row>
@@ -5868,7 +5873,7 @@
       <c r="B31" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="9">
         <v>45369</v>
       </c>
     </row>
@@ -5879,7 +5884,7 @@
       <c r="B32" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="9">
         <v>45370</v>
       </c>
     </row>
@@ -5890,7 +5895,7 @@
       <c r="B33" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>45371</v>
       </c>
     </row>
@@ -5901,7 +5906,7 @@
       <c r="B34" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="9">
         <v>45372</v>
       </c>
     </row>
@@ -5912,7 +5917,7 @@
       <c r="B35" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="9">
         <v>45373</v>
       </c>
     </row>
@@ -5923,7 +5928,7 @@
       <c r="B36" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <v>45374</v>
       </c>
     </row>
@@ -5934,7 +5939,7 @@
       <c r="B37" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>45375</v>
       </c>
     </row>
@@ -5945,7 +5950,7 @@
       <c r="B38" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>45376</v>
       </c>
     </row>
@@ -5956,7 +5961,7 @@
       <c r="B39" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="9">
         <v>45377</v>
       </c>
     </row>
@@ -5967,7 +5972,7 @@
       <c r="B40" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="9">
         <v>45378</v>
       </c>
     </row>
@@ -5978,7 +5983,7 @@
       <c r="B41" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="9">
         <v>45379</v>
       </c>
     </row>
@@ -5989,7 +5994,7 @@
       <c r="B42" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="9">
         <v>45380</v>
       </c>
     </row>
@@ -6000,7 +6005,7 @@
       <c r="B43" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="9">
         <v>45381</v>
       </c>
     </row>
@@ -6011,7 +6016,7 @@
       <c r="B44" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="9">
         <v>45382</v>
       </c>
     </row>
@@ -6022,7 +6027,7 @@
       <c r="B45" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="9">
         <v>45383</v>
       </c>
     </row>
@@ -6033,7 +6038,7 @@
       <c r="B46" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="9">
         <v>45384</v>
       </c>
     </row>
@@ -6044,7 +6049,7 @@
       <c r="B47" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="9">
         <v>45385</v>
       </c>
     </row>
@@ -6055,7 +6060,7 @@
       <c r="B48" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="9">
         <v>45386</v>
       </c>
     </row>
@@ -6066,7 +6071,7 @@
       <c r="B49" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="9">
         <v>45387</v>
       </c>
     </row>
@@ -6077,7 +6082,7 @@
       <c r="B50" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="9">
         <v>45388</v>
       </c>
     </row>
@@ -6088,7 +6093,7 @@
       <c r="B51" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="9">
         <v>45389</v>
       </c>
     </row>
@@ -6099,7 +6104,7 @@
       <c r="B52" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="9">
         <v>45390</v>
       </c>
     </row>
@@ -6110,7 +6115,7 @@
       <c r="B53" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="9">
         <v>45391</v>
       </c>
     </row>
@@ -6121,7 +6126,7 @@
       <c r="B54" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="9">
         <v>45392</v>
       </c>
     </row>
@@ -6132,7 +6137,7 @@
       <c r="B55" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="9">
         <v>45393</v>
       </c>
     </row>
@@ -6143,7 +6148,7 @@
       <c r="B56" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -6154,7 +6159,7 @@
       <c r="B57" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="9">
         <v>45395</v>
       </c>
     </row>
@@ -6165,7 +6170,7 @@
       <c r="B58" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="9">
         <v>45396</v>
       </c>
     </row>
@@ -6176,7 +6181,7 @@
       <c r="B59" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="9">
         <v>45397</v>
       </c>
     </row>
@@ -6187,7 +6192,7 @@
       <c r="B60" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="9">
         <v>45398</v>
       </c>
     </row>
@@ -6198,7 +6203,7 @@
       <c r="B61" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="9">
         <v>45399</v>
       </c>
     </row>
@@ -6209,7 +6214,7 @@
       <c r="B62" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="9">
         <v>45400</v>
       </c>
     </row>
@@ -6220,7 +6225,7 @@
       <c r="B63" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="9">
         <v>45401</v>
       </c>
     </row>
@@ -6231,7 +6236,7 @@
       <c r="B64" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="9">
         <v>45402</v>
       </c>
     </row>
@@ -6242,7 +6247,7 @@
       <c r="B65" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="9">
         <v>45403</v>
       </c>
     </row>
@@ -6253,7 +6258,7 @@
       <c r="B66" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="9">
         <v>45404</v>
       </c>
     </row>
@@ -6264,7 +6269,7 @@
       <c r="B67" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="9">
         <v>45405</v>
       </c>
     </row>
@@ -6275,7 +6280,7 @@
       <c r="B68" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="9">
         <v>45406</v>
       </c>
     </row>
@@ -6286,7 +6291,7 @@
       <c r="B69" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="9">
         <v>45407</v>
       </c>
     </row>
@@ -6297,7 +6302,7 @@
       <c r="B70" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="9">
         <v>45408</v>
       </c>
     </row>
@@ -6308,7 +6313,7 @@
       <c r="B71" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="9">
         <v>45409</v>
       </c>
     </row>
@@ -6319,7 +6324,7 @@
       <c r="B72" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="9">
         <v>45410</v>
       </c>
     </row>
@@ -6330,7 +6335,7 @@
       <c r="B73" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="9">
         <v>45411</v>
       </c>
     </row>
@@ -6341,7 +6346,7 @@
       <c r="B74" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="9">
         <v>45412</v>
       </c>
     </row>
@@ -6352,7 +6357,7 @@
       <c r="B75" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="9">
         <v>45413</v>
       </c>
     </row>
@@ -6363,7 +6368,7 @@
       <c r="B76" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="9">
         <v>45414</v>
       </c>
     </row>
@@ -6374,7 +6379,7 @@
       <c r="B77" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="9">
         <v>45415</v>
       </c>
     </row>
@@ -6385,7 +6390,7 @@
       <c r="B78" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="9">
         <v>45416</v>
       </c>
     </row>
@@ -6396,7 +6401,7 @@
       <c r="B79" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="9">
         <v>45417</v>
       </c>
     </row>
@@ -6407,7 +6412,7 @@
       <c r="B80" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="9">
         <v>45418</v>
       </c>
     </row>
@@ -6418,7 +6423,7 @@
       <c r="B81" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="9">
         <v>45419</v>
       </c>
     </row>
@@ -6429,7 +6434,7 @@
       <c r="B82" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="9">
         <v>45420</v>
       </c>
     </row>
@@ -6440,7 +6445,7 @@
       <c r="B83" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="9">
         <v>45421</v>
       </c>
     </row>
@@ -6451,7 +6456,7 @@
       <c r="B84" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="9">
         <v>45422</v>
       </c>
     </row>
@@ -6462,7 +6467,7 @@
       <c r="B85" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="9">
         <v>45423</v>
       </c>
     </row>
@@ -6473,7 +6478,7 @@
       <c r="B86" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="9">
         <v>45424</v>
       </c>
     </row>
@@ -6484,7 +6489,7 @@
       <c r="B87" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="9">
         <v>45425</v>
       </c>
     </row>
@@ -6495,7 +6500,7 @@
       <c r="B88" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="9">
         <v>45426</v>
       </c>
     </row>
@@ -6506,7 +6511,7 @@
       <c r="B89" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="9">
         <v>45427</v>
       </c>
     </row>
@@ -6517,7 +6522,7 @@
       <c r="B90" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="9">
         <v>45428</v>
       </c>
     </row>
@@ -6528,7 +6533,7 @@
       <c r="B91" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="9">
         <v>45429</v>
       </c>
     </row>
@@ -6539,7 +6544,7 @@
       <c r="B92" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="9">
         <v>45430</v>
       </c>
     </row>
@@ -6550,7 +6555,7 @@
       <c r="B93" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="9">
         <v>45431</v>
       </c>
     </row>
@@ -6561,7 +6566,7 @@
       <c r="B94" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="9">
         <v>45432</v>
       </c>
     </row>
@@ -6572,7 +6577,7 @@
       <c r="B95" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="9">
         <v>45433</v>
       </c>
     </row>
@@ -6583,7 +6588,7 @@
       <c r="B96" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="9">
         <v>45434</v>
       </c>
     </row>
@@ -6594,7 +6599,7 @@
       <c r="B97" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="9">
         <v>45435</v>
       </c>
     </row>
@@ -6605,7 +6610,7 @@
       <c r="B98" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="9">
         <v>45436</v>
       </c>
     </row>
@@ -6616,7 +6621,7 @@
       <c r="B99" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="9">
         <v>45437</v>
       </c>
     </row>
@@ -6627,7 +6632,7 @@
       <c r="B100" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="9">
         <v>45438</v>
       </c>
     </row>
@@ -6638,49 +6643,49 @@
       <c r="B101" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="9">
         <v>45439</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="14"/>
+      <c r="C102" s="10"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="14"/>
+      <c r="C103" s="10"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="14"/>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="14"/>
+      <c r="C105" s="10"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="14"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="14"/>
+      <c r="C107" s="10"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="14"/>
+      <c r="C108" s="10"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="14"/>
+      <c r="C109" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6705,24 +6710,24 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -6731,7 +6736,7 @@
       <c r="B3" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6740,7 +6745,7 @@
       <c r="B4" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -6749,7 +6754,7 @@
       <c r="B5" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -6758,7 +6763,7 @@
       <c r="B6" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -6767,7 +6772,7 @@
       <c r="B7" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -6776,7 +6781,7 @@
       <c r="B8" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -6785,7 +6790,7 @@
       <c r="B9" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -6794,7 +6799,7 @@
       <c r="B10" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -6803,7 +6808,7 @@
       <c r="B11" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -6812,7 +6817,7 @@
       <c r="B12" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -6821,7 +6826,7 @@
       <c r="B13" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -6830,7 +6835,7 @@
       <c r="B14" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -6839,7 +6844,7 @@
       <c r="B15" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -6848,7 +6853,7 @@
       <c r="B16" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6857,7 +6862,7 @@
       <c r="B17" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -6866,7 +6871,7 @@
       <c r="B18" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -6875,7 +6880,7 @@
       <c r="B19" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -6884,7 +6889,7 @@
       <c r="B20" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -6893,7 +6898,7 @@
       <c r="B21" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -6902,7 +6907,7 @@
       <c r="B22" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -6911,7 +6916,7 @@
       <c r="B23" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -6920,7 +6925,7 @@
       <c r="B24" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -6929,7 +6934,7 @@
       <c r="B25" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -6938,7 +6943,7 @@
       <c r="B26" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -6947,7 +6952,7 @@
       <c r="B27" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -6956,7 +6961,7 @@
       <c r="B28" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -6965,7 +6970,7 @@
       <c r="B29" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -6974,7 +6979,7 @@
       <c r="B30" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -6983,7 +6988,7 @@
       <c r="B31" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -6992,7 +6997,7 @@
       <c r="B32" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -7001,7 +7006,7 @@
       <c r="B33" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -7010,7 +7015,7 @@
       <c r="B34" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -7019,7 +7024,7 @@
       <c r="B35" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -7028,7 +7033,7 @@
       <c r="B36" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -7037,7 +7042,7 @@
       <c r="B37" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -7046,7 +7051,7 @@
       <c r="B38" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -7055,7 +7060,7 @@
       <c r="B39" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -7064,7 +7069,7 @@
       <c r="B40" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -7073,7 +7078,7 @@
       <c r="B41" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -7082,7 +7087,7 @@
       <c r="B42" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -7091,7 +7096,7 @@
       <c r="B43" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -7100,7 +7105,7 @@
       <c r="B44" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -7109,7 +7114,7 @@
       <c r="B45" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -7118,7 +7123,7 @@
       <c r="B46" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -7127,7 +7132,7 @@
       <c r="B47" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -7136,7 +7141,7 @@
       <c r="B48" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -7145,7 +7150,7 @@
       <c r="B49" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -7154,7 +7159,7 @@
       <c r="B50" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -7163,7 +7168,7 @@
       <c r="B51" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -7172,7 +7177,7 @@
       <c r="B52" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -7181,7 +7186,7 @@
       <c r="B53" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -7190,7 +7195,7 @@
       <c r="B54" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -7199,7 +7204,7 @@
       <c r="B55" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -7208,7 +7213,7 @@
       <c r="B56" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -7217,7 +7222,7 @@
       <c r="B57" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -7226,7 +7231,7 @@
       <c r="B58" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -7235,7 +7240,7 @@
       <c r="B59" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -7244,7 +7249,7 @@
       <c r="B60" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -7253,7 +7258,7 @@
       <c r="B61" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -7262,7 +7267,7 @@
       <c r="B62" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C62" s="13"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -7271,7 +7276,7 @@
       <c r="B63" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -7280,7 +7285,7 @@
       <c r="B64" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C64" s="13"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -7289,7 +7294,7 @@
       <c r="B65" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -7298,7 +7303,7 @@
       <c r="B66" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -7307,7 +7312,7 @@
       <c r="B67" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -7316,7 +7321,7 @@
       <c r="B68" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
@@ -7325,7 +7330,7 @@
       <c r="B69" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -7334,7 +7339,7 @@
       <c r="B70" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -7343,7 +7348,7 @@
       <c r="B71" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
@@ -7352,7 +7357,7 @@
       <c r="B72" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -7361,7 +7366,7 @@
       <c r="B73" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
@@ -7370,7 +7375,7 @@
       <c r="B74" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -7379,147 +7384,147 @@
       <c r="B75" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="10"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="10"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="10"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="10"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="14"/>
+      <c r="C91" s="10"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="14"/>
+      <c r="C92" s="10"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="14"/>
+      <c r="C93" s="10"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="14"/>
+      <c r="C94" s="10"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="14"/>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="14"/>
+      <c r="C96" s="10"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="14"/>
+      <c r="C97" s="10"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="14"/>
+      <c r="C98" s="10"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="14"/>
+      <c r="C99" s="10"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="14"/>
+      <c r="C100" s="10"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="14"/>
+      <c r="C101" s="10"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="14"/>
+      <c r="C102" s="10"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="14"/>
+      <c r="C103" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
